--- a/hosted_files/dataset.xlsx
+++ b/hosted_files/dataset.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Microsoft\Repos\Data Editor Hackathon 2021\hosted_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peli/Documents/data-science-editor-excel/hosted_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8703AB51-BFCB-403D-BD0B-5223184E1756}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA50ED9B-ED7B-F345-ABFC-B085E8ED4329}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-9930" yWindow="-21720" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="19200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Install Add-in" sheetId="4" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1471" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1462" uniqueCount="285">
   <si>
     <t>name</t>
   </si>
@@ -3166,7 +3166,13 @@
     </r>
   </si>
   <si>
-    <t>https://green-rock-09efbc210.azurestaticapps.net/hosted_files/hosted_manifest.xml</t>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Click here to see an animated instructional GIF</t>
+  </si>
+  <si>
+    <t>How to use Data Science Editor</t>
   </si>
   <si>
     <r>
@@ -3198,11 +3204,50 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Click on cell C5 (to the right) and copy</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
+      <t xml:space="preserve">Click on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Data Science Editor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> button on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Home </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tab.</t>
+    </r>
   </si>
   <si>
     <r>
@@ -3214,7 +3259,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>2.</t>
+      <t>3.</t>
     </r>
     <r>
       <rPr>
@@ -3224,7 +3269,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> On the </t>
+      <t xml:space="preserve"> Click on </t>
     </r>
     <r>
       <rPr>
@@ -3235,7 +3280,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Insert</t>
+      <t>Tables</t>
     </r>
     <r>
       <rPr>
@@ -3245,7 +3290,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> tab, then click </t>
+      <t xml:space="preserve"> then click on the </t>
     </r>
     <r>
       <rPr>
@@ -3256,7 +3301,17 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Office Add-ins.</t>
+      <t>table</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> block.</t>
     </r>
   </si>
   <si>
@@ -3269,7 +3324,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>3.</t>
+      <t>2.</t>
     </r>
     <r>
       <rPr>
@@ -3279,7 +3334,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Click </t>
+      <t xml:space="preserve"> Click on the </t>
     </r>
     <r>
       <rPr>
@@ -3290,7 +3345,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Upload My Add-in</t>
+      <t>Cereal</t>
     </r>
     <r>
       <rPr>
@@ -3300,7 +3355,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> in the upper right hand corner.</t>
+      <t xml:space="preserve"> or </t>
     </r>
     <r>
       <rPr>
@@ -3311,8 +3366,82 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">
-</t>
+      <t>Penguins</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> tab.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Pick a table name from the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>drop down</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>table</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> block.</t>
     </r>
   </si>
   <si>
@@ -3325,7 +3454,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>4.</t>
+      <t>5.</t>
     </r>
     <r>
       <rPr>
@@ -3345,7 +3474,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Click </t>
+      <t xml:space="preserve">Click on the </t>
     </r>
     <r>
       <rPr>
@@ -3356,7 +3485,59 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Browse…</t>
+      <t>eyes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> icon to preview </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>before</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">after </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>data.</t>
     </r>
   </si>
   <si>
@@ -3369,7 +3550,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">5. </t>
+      <t xml:space="preserve">6. </t>
     </r>
     <r>
       <rPr>
@@ -3379,7 +3560,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Paste into the </t>
+      <t xml:space="preserve">Pick another block from the left-hand menu and attach to the </t>
     </r>
     <r>
       <rPr>
@@ -3390,7 +3571,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">File Name: </t>
+      <t>table</t>
     </r>
     <r>
       <rPr>
@@ -3400,24 +3581,19 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">text box, then click </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Open</t>
-    </r>
-  </si>
-  <si>
-    <t>Great work!  Now you can click on the Cereal or Penguins tab to get started!</t>
-  </si>
-  <si>
+      <t xml:space="preserve"> block.</t>
+    </r>
+  </si>
+  <si>
+    <t>Great work!  Continue adding blocks to explore the data and create charts!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://appsource.microsoft.com/en-us/product/office/WA200005186 </t>
+  </si>
+  <si>
+    <r>
+      <t>Click on the link above and select</t>
+    </r>
     <r>
       <rPr>
         <b/>
@@ -3427,526 +3603,42 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>7.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Click on the new </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Data Science Editor</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> button on the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Home </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>tab.</t>
-    </r>
-  </si>
-  <si>
+      <t xml:space="preserve"> Get It Now</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The </t>
+    </r>
     <r>
       <rPr>
         <b/>
         <sz val="16"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>6.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Click </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Upload</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <t>Click here to see an animated instructional GIF</t>
-  </si>
-  <si>
-    <t>Install Data Science Editor Add-in for Excel Online</t>
-  </si>
-  <si>
-    <t>How to use Data Science Editor</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Data Science Editor </t>
+    </r>
+    <r>
+      <rPr>
         <sz val="16"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Click on the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Data Science Editor</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> button on the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Home </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>tab.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Click on </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Tables</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> then click on the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>table</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> block.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Click on the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Cereal</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> or </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Penguins</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> tab.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>4.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Pick a table name from the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>drop down</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> on the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>table</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> block.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>5.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Click on the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>eyes</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> icon to preview </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>before</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> and </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">after </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>data.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">6. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Pick another block from the left-hand menu and attach to the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>table</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> block.</t>
-    </r>
-  </si>
-  <si>
-    <t>Great work!  Continue adding blocks to explore the data and create charts!</t>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>is available from then Office Store at</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -3956,7 +3648,7 @@
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="33" x14ac:knownFonts="1">
+  <fonts count="35" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4191,7 +3883,7 @@
     </font>
     <font>
       <u/>
-      <sz val="26"/>
+      <sz val="22"/>
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -4199,11 +3891,24 @@
     </font>
     <font>
       <u/>
-      <sz val="22"/>
+      <sz val="16"/>
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Segoe UI Symbol"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Segoe UI Symbol"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="37">
@@ -4663,7 +4368,7 @@
     <xf numFmtId="0" fontId="1" fillId="34" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="34" borderId="16"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="42">
       <alignment horizontal="left" indent="3"/>
@@ -4732,9 +4437,10 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="43" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="43" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="33" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
     </xf>
+    <xf numFmtId="0" fontId="32" fillId="34" borderId="0" xfId="43" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="53">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -4837,146 +4543,717 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>2914650</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>1071345</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>6200775</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Arrow: Right 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DDD579F-B4BB-4C69-B31C-47B59F494896}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3200400" y="923925"/>
-          <a:ext cx="3286125" cy="323850"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="C00000"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="C00000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>4000500</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>1182259</xdr:rowOff>
+      <xdr:colOff>5943600</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>218908</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 8">
+        <xdr:cNvPr id="7" name="LaunchHelpImage" descr="Office ribbon open on the Home tab.">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45C91D6B-42F8-4449-8D13-8BB3DABD7519}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4713FEE-F68B-644C-A18B-DAEDF6ACD273}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
+          <a:picLocks/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="895350" y="1524000"/>
-          <a:ext cx="3714750" cy="1172734"/>
+          <a:off x="330200" y="4093945"/>
+          <a:ext cx="5943600" cy="2170163"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>767728</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2450858</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>1112087</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="LaunchHelpContent2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{437197CE-AB72-8E4E-9E1C-13D40A534133}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="330201" y="6050928"/>
+          <a:ext cx="9651757" cy="344359"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="0" rtlCol="0" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" baseline="0">
+              <a:latin typeface="Segoe UI Semibold" panose="020B0702040204020203" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Segoe UI Semibold" panose="020B0702040204020203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Sign in and find the add-in on the Home tab</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1600" b="0" i="0">
+            <a:latin typeface="Segoe UI Semibold" panose="020B0702040204020203" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Segoe UI Semibold" panose="020B0702040204020203" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>380090</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2450858</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>724447</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="LaunchHelpContent1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B189CE3-8878-0948-BFE1-1601D3519EEC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="330201" y="5663290"/>
+          <a:ext cx="9651757" cy="344357"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="0" rtlCol="0" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0">
+              <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>After you install the add-in, you can launch it by choosing the add-in button on the Home tab</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1600" b="1" i="0">
+            <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2450858</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>322596</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="LaunchHelpHeader">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A02DD43-A47E-CF4C-838A-4E6DE898CF12}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="330201" y="5092700"/>
+          <a:ext cx="9651757" cy="513096"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
-    </xdr:pic>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="0" rtlCol="0" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400">
+              <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Launch the add-in</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>292027</xdr:rowOff>
+      <xdr:colOff>4521200</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>925067</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4524375</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>1143770</xdr:rowOff>
+      <xdr:colOff>5431387</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>15358</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="GroupName">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA6885C5-2FE9-8F4A-BEAB-31EC290C5F7D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4851400" y="7808467"/>
+          <a:ext cx="910187" cy="322191"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="106000"/>
+            </a:lnSpc>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-GB" sz="800" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="404040"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Data Science Editor</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-IE" sz="1200">
+            <a:effectLst/>
+            <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            <a:ea typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4731005</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5204063</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>558437</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Picture 10">
+        <xdr:cNvPr id="16" name="CommandButton" descr="Command button for Data Science Editor.">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C137B18-ED7C-4135-AB3B-4FE1FED870E9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D183A88-8E58-F34D-8EB2-CEA531069D0A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
+        <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
@@ -4986,220 +5263,181 @@
             </a:ext>
           </a:extLst>
         </a:blip>
+        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5061205" y="6946900"/>
+          <a:ext cx="473058" cy="494937"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2450857</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>144796</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="LaunchHelpHeader">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFF0AA61-587A-164E-8652-FB8D6FB6815C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="923925" y="3073327"/>
-          <a:ext cx="4210050" cy="851743"/>
+          <a:off x="330200" y="355600"/>
+          <a:ext cx="9651757" cy="513096"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2390775</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>1057099</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Picture 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D005D6A3-40F5-41FA-BBB1-DCE0B1D4DF70}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1009650" y="4991100"/>
-          <a:ext cx="1990725" cy="1018999"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>447676</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>9526</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>3362326</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>1203480</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="Picture 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA978C66-63DB-4DF2-94BC-B12FDBE8D713}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1057276" y="5657851"/>
-          <a:ext cx="2914650" cy="1193954"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>384986</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>314325</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2409376</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>1161780</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="Picture 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1DBAAC0-B88E-479B-BC36-320616A9DA4B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="994586" y="7200900"/>
-          <a:ext cx="2024390" cy="1218930"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>9816</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>3333750</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>1447727</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="Picture 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D717E52B-8DF2-4464-9FBE-546153EEC86E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1000125" y="8772816"/>
-          <a:ext cx="2943225" cy="1437911"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="0" rtlCol="0" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400">
+              <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Install the </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" b="1">
+              <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Data Science Editor </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400">
+              <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>add-in</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -8026,105 +8264,116 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A02F28DC-1305-41B7-A647-31E5C4A6E5A9}">
-  <dimension ref="B1:E18"/>
+  <dimension ref="B1:D28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" customWidth="1"/>
-    <col min="2" max="2" width="94.42578125" customWidth="1"/>
-    <col min="5" max="5" width="43.5703125" customWidth="1"/>
+    <col min="1" max="1" width="4.33203125" customWidth="1"/>
+    <col min="2" max="2" width="111.33203125" customWidth="1"/>
+    <col min="3" max="3" width="70.6640625" customWidth="1"/>
+    <col min="5" max="5" width="43.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:4" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:4" ht="19" x14ac:dyDescent="0.25">
       <c r="B2" s="13"/>
     </row>
-    <row r="3" spans="2:5" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B3" s="12" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="B3" s="12"/>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="5" spans="2:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="B5" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="C5" t="s">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B5" s="6"/>
+      <c r="D5" t="s">
         <v>272</v>
       </c>
-      <c r="D5" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="B6" s="6" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="6"/>
-    </row>
-    <row r="8" spans="2:5" ht="96.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B8" s="14" t="s">
-        <v>276</v>
-      </c>
-      <c r="E8" s="33" t="s">
+    </row>
+    <row r="6" spans="2:4" ht="24" x14ac:dyDescent="0.2">
+      <c r="B6" s="34" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="23" x14ac:dyDescent="0.2">
+      <c r="B7" s="34"/>
+    </row>
+    <row r="8" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="35" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="9" spans="2:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="6" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="6"/>
-    </row>
-    <row r="11" spans="2:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="B11" s="6" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:4" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="6"/>
+    </row>
+    <row r="10" spans="2:4" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="9" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B11" s="6"/>
+    </row>
+    <row r="12" spans="2:4" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="6"/>
     </row>
-    <row r="13" spans="2:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="6" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="6"/>
+    </row>
+    <row r="14" spans="2:4" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="6"/>
     </row>
-    <row r="15" spans="2:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="B15" s="6" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" ht="129" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="B17" s="7" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B15" s="6"/>
+    </row>
+    <row r="16" spans="2:4" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B17" s="6"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B18" s="6"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B19" s="6"/>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B20" s="6"/>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B21" s="6"/>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B22" s="6"/>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B23" s="6"/>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B24" s="6"/>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B25" s="6"/>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B26" s="6"/>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B27" s="6"/>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B28" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E8" r:id="rId1" xr:uid="{BAE0933A-B886-4336-96DA-299BEFA10EDD}"/>
+    <hyperlink ref="B8" r:id="rId1" xr:uid="{77612E16-80A7-B340-B4E4-838CBA0512B6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -8140,17 +8389,17 @@
       <selection activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" customWidth="1"/>
-    <col min="12" max="12" width="10.7109375" customWidth="1"/>
-    <col min="14" max="14" width="9.28515625" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" customWidth="1"/>
+    <col min="12" max="12" width="10.6640625" customWidth="1"/>
+    <col min="14" max="14" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8200,7 +8449,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -8250,7 +8499,7 @@
         <v>68.402973000000003</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -8300,7 +8549,7 @@
         <v>33.983679000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -8350,7 +8599,7 @@
         <v>59.425505000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -8400,7 +8649,7 @@
         <v>93.704911999999993</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -8450,7 +8699,7 @@
         <v>34.384842999999996</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -8500,7 +8749,7 @@
         <v>29.509540999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -8550,7 +8799,7 @@
         <v>33.174093999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>29</v>
       </c>
@@ -8600,7 +8849,7 @@
         <v>37.038561999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -8650,7 +8899,7 @@
         <v>49.120252999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -8700,7 +8949,7 @@
         <v>53.313813000000003</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -8750,7 +8999,7 @@
         <v>18.042850999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -8800,7 +9049,7 @@
         <v>50.764999000000003</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -8850,7 +9099,7 @@
         <v>19.823573</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>36</v>
       </c>
@@ -8900,7 +9149,7 @@
         <v>40.400207999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>37</v>
       </c>
@@ -8950,7 +9199,7 @@
         <v>22.736446000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>38</v>
       </c>
@@ -9000,7 +9249,7 @@
         <v>41.445019000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>39</v>
       </c>
@@ -9050,7 +9299,7 @@
         <v>45.863323999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>40</v>
       </c>
@@ -9100,7 +9349,7 @@
         <v>35.782791000000003</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>41</v>
       </c>
@@ -9150,7 +9399,7 @@
         <v>22.396512999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>42</v>
       </c>
@@ -9200,7 +9449,7 @@
         <v>40.448771999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>43</v>
       </c>
@@ -9250,7 +9499,7 @@
         <v>64.533816000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>45</v>
       </c>
@@ -9300,7 +9549,7 @@
         <v>46.895643999999997</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>46</v>
       </c>
@@ -9350,7 +9599,7 @@
         <v>36.176195999999997</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>47</v>
       </c>
@@ -9400,7 +9649,7 @@
         <v>44.330855999999997</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>48</v>
       </c>
@@ -9450,7 +9699,7 @@
         <v>32.207582000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>49</v>
       </c>
@@ -9500,7 +9749,7 @@
         <v>31.435973000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>50</v>
       </c>
@@ -9550,7 +9799,7 @@
         <v>58.345140999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>51</v>
       </c>
@@ -9600,7 +9849,7 @@
         <v>40.917046999999997</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>52</v>
       </c>
@@ -9650,7 +9899,7 @@
         <v>41.015492000000002</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>53</v>
       </c>
@@ -9700,7 +9949,7 @@
         <v>28.025765</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>54</v>
       </c>
@@ -9750,7 +9999,7 @@
         <v>35.252443999999997</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>55</v>
       </c>
@@ -9800,7 +10049,7 @@
         <v>23.804043</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>56</v>
       </c>
@@ -9850,7 +10099,7 @@
         <v>52.076897000000002</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>57</v>
       </c>
@@ -9900,7 +10149,7 @@
         <v>53.371006999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>58</v>
       </c>
@@ -9950,7 +10199,7 @@
         <v>45.811715999999997</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>59</v>
       </c>
@@ -10000,7 +10249,7 @@
         <v>21.871292</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>60</v>
       </c>
@@ -10050,7 +10299,7 @@
         <v>31.072216999999998</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>61</v>
       </c>
@@ -10100,7 +10349,7 @@
         <v>28.742414</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>62</v>
       </c>
@@ -10150,7 +10399,7 @@
         <v>36.523682999999998</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>63</v>
       </c>
@@ -10200,7 +10449,7 @@
         <v>36.471511999999997</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>64</v>
       </c>
@@ -10250,7 +10499,7 @@
         <v>39.241114000000003</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>65</v>
       </c>
@@ -10300,7 +10549,7 @@
         <v>45.328074000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>66</v>
       </c>
@@ -10350,7 +10599,7 @@
         <v>26.734514999999998</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>67</v>
       </c>
@@ -10400,7 +10649,7 @@
         <v>54.850917000000003</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>69</v>
       </c>
@@ -10450,7 +10699,7 @@
         <v>37.136862999999998</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>70</v>
       </c>
@@ -10500,7 +10749,7 @@
         <v>34.139764999999997</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>71</v>
       </c>
@@ -10550,7 +10799,7 @@
         <v>30.313351000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>72</v>
       </c>
@@ -10600,7 +10849,7 @@
         <v>40.105964999999998</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>73</v>
       </c>
@@ -10650,7 +10899,7 @@
         <v>29.924285000000001</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>74</v>
       </c>
@@ -10700,7 +10949,7 @@
         <v>40.692320000000002</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>75</v>
       </c>
@@ -10750,7 +10999,7 @@
         <v>59.642837</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>76</v>
       </c>
@@ -10800,7 +11049,7 @@
         <v>30.450842999999999</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>77</v>
       </c>
@@ -10850,7 +11099,7 @@
         <v>37.840594000000003</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>78</v>
       </c>
@@ -10900,7 +11149,7 @@
         <v>41.503540000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>79</v>
       </c>
@@ -10950,7 +11199,7 @@
         <v>60.756112000000002</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>80</v>
       </c>
@@ -11000,7 +11249,7 @@
         <v>63.005645000000001</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>81</v>
       </c>
@@ -11050,7 +11299,7 @@
         <v>49.511873999999999</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>82</v>
       </c>
@@ -11100,7 +11349,7 @@
         <v>50.828392000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>83</v>
       </c>
@@ -11150,7 +11399,7 @@
         <v>39.259197</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>84</v>
       </c>
@@ -11200,7 +11449,7 @@
         <v>39.703400000000002</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>85</v>
       </c>
@@ -11250,7 +11499,7 @@
         <v>55.333142000000002</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>86</v>
       </c>
@@ -11300,7 +11549,7 @@
         <v>41.998933000000001</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>87</v>
       </c>
@@ -11350,7 +11599,7 @@
         <v>40.560158999999999</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>88</v>
       </c>
@@ -11400,7 +11649,7 @@
         <v>68.235884999999996</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>89</v>
       </c>
@@ -11450,7 +11699,7 @@
         <v>74.472949</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>90</v>
       </c>
@@ -11500,7 +11749,7 @@
         <v>72.801787000000004</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>91</v>
       </c>
@@ -11550,7 +11799,7 @@
         <v>31.230053999999999</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>92</v>
       </c>
@@ -11600,7 +11849,7 @@
         <v>53.131323999999999</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>93</v>
       </c>
@@ -11650,7 +11899,7 @@
         <v>59.363993000000001</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>94</v>
       </c>
@@ -11700,7 +11949,7 @@
         <v>38.839745999999998</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>95</v>
       </c>
@@ -11750,7 +11999,7 @@
         <v>28.592784999999999</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>96</v>
       </c>
@@ -11800,7 +12049,7 @@
         <v>46.658844000000002</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>97</v>
       </c>
@@ -11850,7 +12099,7 @@
         <v>39.106174000000003</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>98</v>
       </c>
@@ -11900,7 +12149,7 @@
         <v>27.753301</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>99</v>
       </c>
@@ -11950,7 +12199,7 @@
         <v>49.787444999999998</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>100</v>
       </c>
@@ -12000,7 +12249,7 @@
         <v>51.592193000000002</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>101</v>
       </c>
@@ -12066,12 +12315,12 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>252</v>
       </c>
@@ -12097,7 +12346,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>260</v>
       </c>
@@ -12123,7 +12372,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>260</v>
       </c>
@@ -12149,7 +12398,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>260</v>
       </c>
@@ -12175,7 +12424,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>260</v>
       </c>
@@ -12201,7 +12450,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>260</v>
       </c>
@@ -12227,7 +12476,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>260</v>
       </c>
@@ -12253,7 +12502,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>260</v>
       </c>
@@ -12279,7 +12528,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>260</v>
       </c>
@@ -12305,7 +12554,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>260</v>
       </c>
@@ -12331,7 +12580,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>260</v>
       </c>
@@ -12357,7 +12606,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>260</v>
       </c>
@@ -12383,7 +12632,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>260</v>
       </c>
@@ -12409,7 +12658,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>260</v>
       </c>
@@ -12435,7 +12684,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>260</v>
       </c>
@@ -12461,7 +12710,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>260</v>
       </c>
@@ -12487,7 +12736,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>260</v>
       </c>
@@ -12513,7 +12762,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>260</v>
       </c>
@@ -12539,7 +12788,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>260</v>
       </c>
@@ -12565,7 +12814,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>260</v>
       </c>
@@ -12591,7 +12840,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>260</v>
       </c>
@@ -12617,7 +12866,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>260</v>
       </c>
@@ -12643,7 +12892,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>260</v>
       </c>
@@ -12669,7 +12918,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>260</v>
       </c>
@@ -12695,7 +12944,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>260</v>
       </c>
@@ -12721,7 +12970,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>260</v>
       </c>
@@ -12747,7 +12996,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>260</v>
       </c>
@@ -12773,7 +13022,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>260</v>
       </c>
@@ -12799,7 +13048,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>260</v>
       </c>
@@ -12825,7 +13074,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>260</v>
       </c>
@@ -12851,7 +13100,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>260</v>
       </c>
@@ -12877,7 +13126,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>260</v>
       </c>
@@ -12903,7 +13152,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>260</v>
       </c>
@@ -12929,7 +13178,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>260</v>
       </c>
@@ -12955,7 +13204,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>260</v>
       </c>
@@ -12981,7 +13230,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>260</v>
       </c>
@@ -13007,7 +13256,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>260</v>
       </c>
@@ -13033,7 +13282,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>260</v>
       </c>
@@ -13059,7 +13308,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>260</v>
       </c>
@@ -13085,7 +13334,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>260</v>
       </c>
@@ -13111,7 +13360,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>260</v>
       </c>
@@ -13137,7 +13386,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>260</v>
       </c>
@@ -13163,7 +13412,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>260</v>
       </c>
@@ -13189,7 +13438,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>260</v>
       </c>
@@ -13215,7 +13464,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>260</v>
       </c>
@@ -13241,7 +13490,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>260</v>
       </c>
@@ -13267,7 +13516,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>260</v>
       </c>
@@ -13293,7 +13542,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>260</v>
       </c>
@@ -13319,7 +13568,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>260</v>
       </c>
@@ -13345,7 +13594,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>260</v>
       </c>
@@ -13371,7 +13620,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>260</v>
       </c>
@@ -13397,7 +13646,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>260</v>
       </c>
@@ -13423,7 +13672,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>260</v>
       </c>
@@ -13449,7 +13698,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>260</v>
       </c>
@@ -13475,7 +13724,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>260</v>
       </c>
@@ -13501,7 +13750,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>260</v>
       </c>
@@ -13527,7 +13776,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>260</v>
       </c>
@@ -13553,7 +13802,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>260</v>
       </c>
@@ -13579,7 +13828,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>260</v>
       </c>
@@ -13605,7 +13854,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>260</v>
       </c>
@@ -13631,7 +13880,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>260</v>
       </c>
@@ -13657,7 +13906,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>260</v>
       </c>
@@ -13683,7 +13932,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>260</v>
       </c>
@@ -13709,7 +13958,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>260</v>
       </c>
@@ -13735,7 +13984,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>260</v>
       </c>
@@ -13761,7 +14010,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>260</v>
       </c>
@@ -13787,7 +14036,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>260</v>
       </c>
@@ -13813,7 +14062,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>260</v>
       </c>
@@ -13839,7 +14088,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>260</v>
       </c>
@@ -13865,7 +14114,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>260</v>
       </c>
@@ -13891,7 +14140,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>260</v>
       </c>
@@ -13917,7 +14166,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>260</v>
       </c>
@@ -13943,7 +14192,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>260</v>
       </c>
@@ -13969,7 +14218,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>260</v>
       </c>
@@ -13995,7 +14244,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>260</v>
       </c>
@@ -14021,7 +14270,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>260</v>
       </c>
@@ -14047,7 +14296,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>260</v>
       </c>
@@ -14073,7 +14322,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>260</v>
       </c>
@@ -14099,7 +14348,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>260</v>
       </c>
@@ -14125,7 +14374,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>260</v>
       </c>
@@ -14151,7 +14400,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>260</v>
       </c>
@@ -14177,7 +14426,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>260</v>
       </c>
@@ -14203,7 +14452,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>260</v>
       </c>
@@ -14229,7 +14478,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>260</v>
       </c>
@@ -14255,7 +14504,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>260</v>
       </c>
@@ -14281,7 +14530,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>260</v>
       </c>
@@ -14307,7 +14556,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>260</v>
       </c>
@@ -14333,7 +14582,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>260</v>
       </c>
@@ -14359,7 +14608,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>260</v>
       </c>
@@ -14385,7 +14634,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>260</v>
       </c>
@@ -14411,7 +14660,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>260</v>
       </c>
@@ -14437,7 +14686,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>260</v>
       </c>
@@ -14463,7 +14712,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>260</v>
       </c>
@@ -14489,7 +14738,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>260</v>
       </c>
@@ -14515,7 +14764,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>260</v>
       </c>
@@ -14541,7 +14790,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>260</v>
       </c>
@@ -14567,7 +14816,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>260</v>
       </c>
@@ -14593,7 +14842,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>260</v>
       </c>
@@ -14619,7 +14868,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>260</v>
       </c>
@@ -14645,7 +14894,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>260</v>
       </c>
@@ -14671,7 +14920,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>260</v>
       </c>
@@ -14697,7 +14946,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>260</v>
       </c>
@@ -14723,7 +14972,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>260</v>
       </c>
@@ -14749,7 +14998,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>260</v>
       </c>
@@ -14775,7 +15024,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>260</v>
       </c>
@@ -14801,7 +15050,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>260</v>
       </c>
@@ -14827,7 +15076,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>260</v>
       </c>
@@ -14853,7 +15102,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>260</v>
       </c>
@@ -14879,7 +15128,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>260</v>
       </c>
@@ -14905,7 +15154,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>260</v>
       </c>
@@ -14931,7 +15180,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>260</v>
       </c>
@@ -14957,7 +15206,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>260</v>
       </c>
@@ -14983,7 +15232,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>260</v>
       </c>
@@ -15009,7 +15258,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>260</v>
       </c>
@@ -15035,7 +15284,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>260</v>
       </c>
@@ -15061,7 +15310,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>260</v>
       </c>
@@ -15087,7 +15336,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>260</v>
       </c>
@@ -15113,7 +15362,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>260</v>
       </c>
@@ -15139,7 +15388,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>260</v>
       </c>
@@ -15165,7 +15414,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>260</v>
       </c>
@@ -15191,7 +15440,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>260</v>
       </c>
@@ -15217,7 +15466,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>260</v>
       </c>
@@ -15243,7 +15492,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>260</v>
       </c>
@@ -15269,7 +15518,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>260</v>
       </c>
@@ -15295,7 +15544,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>260</v>
       </c>
@@ -15321,7 +15570,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>260</v>
       </c>
@@ -15347,7 +15596,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>260</v>
       </c>
@@ -15373,7 +15622,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>260</v>
       </c>
@@ -15399,7 +15648,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>260</v>
       </c>
@@ -15425,7 +15674,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>260</v>
       </c>
@@ -15451,7 +15700,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>260</v>
       </c>
@@ -15477,7 +15726,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>260</v>
       </c>
@@ -15503,7 +15752,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>260</v>
       </c>
@@ -15529,7 +15778,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>260</v>
       </c>
@@ -15555,7 +15804,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>260</v>
       </c>
@@ -15581,7 +15830,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>260</v>
       </c>
@@ -15607,7 +15856,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>260</v>
       </c>
@@ -15633,7 +15882,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>260</v>
       </c>
@@ -15659,7 +15908,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>260</v>
       </c>
@@ -15685,7 +15934,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>260</v>
       </c>
@@ -15711,7 +15960,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>260</v>
       </c>
@@ -15737,7 +15986,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>260</v>
       </c>
@@ -15763,7 +16012,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>260</v>
       </c>
@@ -15789,7 +16038,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>260</v>
       </c>
@@ -15815,7 +16064,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>260</v>
       </c>
@@ -15841,7 +16090,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>260</v>
       </c>
@@ -15867,7 +16116,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>260</v>
       </c>
@@ -15893,7 +16142,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>266</v>
       </c>
@@ -15919,7 +16168,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>266</v>
       </c>
@@ -15945,7 +16194,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>266</v>
       </c>
@@ -15971,7 +16220,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>266</v>
       </c>
@@ -15997,7 +16246,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>266</v>
       </c>
@@ -16023,7 +16272,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>266</v>
       </c>
@@ -16049,7 +16298,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>266</v>
       </c>
@@ -16075,7 +16324,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>266</v>
       </c>
@@ -16101,7 +16350,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>266</v>
       </c>
@@ -16127,7 +16376,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>266</v>
       </c>
@@ -16153,7 +16402,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>266</v>
       </c>
@@ -16179,7 +16428,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>266</v>
       </c>
@@ -16205,7 +16454,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>266</v>
       </c>
@@ -16231,7 +16480,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>266</v>
       </c>
@@ -16257,7 +16506,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>266</v>
       </c>
@@ -16283,7 +16532,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>266</v>
       </c>
@@ -16309,7 +16558,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>266</v>
       </c>
@@ -16335,7 +16584,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>266</v>
       </c>
@@ -16361,7 +16610,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>266</v>
       </c>
@@ -16387,7 +16636,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>266</v>
       </c>
@@ -16413,7 +16662,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>266</v>
       </c>
@@ -16439,7 +16688,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>266</v>
       </c>
@@ -16465,7 +16714,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>266</v>
       </c>
@@ -16491,7 +16740,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>266</v>
       </c>
@@ -16517,7 +16766,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>266</v>
       </c>
@@ -16543,7 +16792,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>266</v>
       </c>
@@ -16569,7 +16818,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>266</v>
       </c>
@@ -16595,7 +16844,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>266</v>
       </c>
@@ -16621,7 +16870,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>266</v>
       </c>
@@ -16647,7 +16896,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>266</v>
       </c>
@@ -16673,7 +16922,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>266</v>
       </c>
@@ -16699,7 +16948,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>266</v>
       </c>
@@ -16725,7 +16974,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>266</v>
       </c>
@@ -16751,7 +17000,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>266</v>
       </c>
@@ -16777,7 +17026,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>266</v>
       </c>
@@ -16803,7 +17052,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>266</v>
       </c>
@@ -16829,7 +17078,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>266</v>
       </c>
@@ -16855,7 +17104,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>266</v>
       </c>
@@ -16881,7 +17130,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>266</v>
       </c>
@@ -16907,7 +17156,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>266</v>
       </c>
@@ -16933,7 +17182,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>266</v>
       </c>
@@ -16959,7 +17208,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>266</v>
       </c>
@@ -16985,7 +17234,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>266</v>
       </c>
@@ -17011,7 +17260,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>266</v>
       </c>
@@ -17037,7 +17286,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>266</v>
       </c>
@@ -17063,7 +17312,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>266</v>
       </c>
@@ -17089,7 +17338,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>266</v>
       </c>
@@ -17115,7 +17364,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>266</v>
       </c>
@@ -17141,7 +17390,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>266</v>
       </c>
@@ -17167,7 +17416,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>266</v>
       </c>
@@ -17193,7 +17442,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>266</v>
       </c>
@@ -17219,7 +17468,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>266</v>
       </c>
@@ -17245,7 +17494,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>266</v>
       </c>
@@ -17271,7 +17520,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>266</v>
       </c>
@@ -17297,7 +17546,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>266</v>
       </c>
@@ -17323,7 +17572,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>266</v>
       </c>
@@ -17349,7 +17598,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>266</v>
       </c>
@@ -17375,7 +17624,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>266</v>
       </c>
@@ -17401,7 +17650,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>266</v>
       </c>
@@ -17427,7 +17676,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>266</v>
       </c>
@@ -17453,7 +17702,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>266</v>
       </c>
@@ -17479,7 +17728,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>266</v>
       </c>
@@ -17505,7 +17754,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>266</v>
       </c>
@@ -17531,7 +17780,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>266</v>
       </c>
@@ -17557,7 +17806,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>266</v>
       </c>
@@ -17583,7 +17832,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>266</v>
       </c>
@@ -17609,7 +17858,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>266</v>
       </c>
@@ -17635,7 +17884,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>266</v>
       </c>
@@ -17661,7 +17910,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>266</v>
       </c>
@@ -17687,7 +17936,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>266</v>
       </c>
@@ -17713,7 +17962,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>266</v>
       </c>
@@ -17739,7 +17988,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>266</v>
       </c>
@@ -17765,7 +18014,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>266</v>
       </c>
@@ -17791,7 +18040,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>266</v>
       </c>
@@ -17817,7 +18066,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>266</v>
       </c>
@@ -17843,7 +18092,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>266</v>
       </c>
@@ -17869,7 +18118,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>266</v>
       </c>
@@ -17895,7 +18144,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>266</v>
       </c>
@@ -17921,7 +18170,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>266</v>
       </c>
@@ -17947,7 +18196,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>266</v>
       </c>
@@ -17973,7 +18222,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>266</v>
       </c>
@@ -17999,7 +18248,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>266</v>
       </c>
@@ -18025,7 +18274,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>266</v>
       </c>
@@ -18051,7 +18300,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>266</v>
       </c>
@@ -18077,7 +18326,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>266</v>
       </c>
@@ -18103,7 +18352,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>266</v>
       </c>
@@ -18129,7 +18378,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>266</v>
       </c>
@@ -18155,7 +18404,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>266</v>
       </c>
@@ -18181,7 +18430,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>266</v>
       </c>
@@ -18207,7 +18456,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>266</v>
       </c>
@@ -18233,7 +18482,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>266</v>
       </c>
@@ -18259,7 +18508,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>266</v>
       </c>
@@ -18285,7 +18534,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>266</v>
       </c>
@@ -18311,7 +18560,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>266</v>
       </c>
@@ -18337,7 +18586,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>266</v>
       </c>
@@ -18363,7 +18612,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>266</v>
       </c>
@@ -18389,7 +18638,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>266</v>
       </c>
@@ -18415,7 +18664,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>266</v>
       </c>
@@ -18441,7 +18690,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>266</v>
       </c>
@@ -18467,7 +18716,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>266</v>
       </c>
@@ -18493,7 +18742,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>266</v>
       </c>
@@ -18519,7 +18768,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>266</v>
       </c>
@@ -18545,7 +18794,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>266</v>
       </c>
@@ -18571,7 +18820,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>266</v>
       </c>
@@ -18597,7 +18846,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>266</v>
       </c>
@@ -18623,7 +18872,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>266</v>
       </c>
@@ -18649,7 +18898,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>266</v>
       </c>
@@ -18675,7 +18924,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>266</v>
       </c>
@@ -18701,7 +18950,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>266</v>
       </c>
@@ -18727,7 +18976,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>266</v>
       </c>
@@ -18753,7 +19002,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>266</v>
       </c>
@@ -18779,7 +19028,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>266</v>
       </c>
@@ -18805,7 +19054,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>266</v>
       </c>
@@ -18831,7 +19080,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>266</v>
       </c>
@@ -18857,7 +19106,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>266</v>
       </c>
@@ -18883,7 +19132,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>266</v>
       </c>
@@ -18909,7 +19158,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>266</v>
       </c>
@@ -18935,7 +19184,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>266</v>
       </c>
@@ -18961,7 +19210,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>266</v>
       </c>
@@ -18987,7 +19236,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>267</v>
       </c>
@@ -19013,7 +19262,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>267</v>
       </c>
@@ -19039,7 +19288,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>267</v>
       </c>
@@ -19065,7 +19314,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>267</v>
       </c>
@@ -19091,7 +19340,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>267</v>
       </c>
@@ -19117,7 +19366,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>267</v>
       </c>
@@ -19143,7 +19392,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>267</v>
       </c>
@@ -19169,7 +19418,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>267</v>
       </c>
@@ -19195,7 +19444,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>267</v>
       </c>
@@ -19221,7 +19470,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>267</v>
       </c>
@@ -19247,7 +19496,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>267</v>
       </c>
@@ -19273,7 +19522,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>267</v>
       </c>
@@ -19299,7 +19548,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>267</v>
       </c>
@@ -19325,7 +19574,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>267</v>
       </c>
@@ -19351,7 +19600,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>267</v>
       </c>
@@ -19377,7 +19626,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>267</v>
       </c>
@@ -19403,7 +19652,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>267</v>
       </c>
@@ -19429,7 +19678,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>267</v>
       </c>
@@ -19455,7 +19704,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>267</v>
       </c>
@@ -19481,7 +19730,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>267</v>
       </c>
@@ -19507,7 +19756,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>267</v>
       </c>
@@ -19533,7 +19782,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>267</v>
       </c>
@@ -19559,7 +19808,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>267</v>
       </c>
@@ -19585,7 +19834,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>267</v>
       </c>
@@ -19611,7 +19860,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>267</v>
       </c>
@@ -19637,7 +19886,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>267</v>
       </c>
@@ -19663,7 +19912,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>267</v>
       </c>
@@ -19689,7 +19938,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>267</v>
       </c>
@@ -19715,7 +19964,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>267</v>
       </c>
@@ -19741,7 +19990,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>267</v>
       </c>
@@ -19767,7 +20016,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>267</v>
       </c>
@@ -19793,7 +20042,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>267</v>
       </c>
@@ -19819,7 +20068,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>267</v>
       </c>
@@ -19845,7 +20094,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>267</v>
       </c>
@@ -19871,7 +20120,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>267</v>
       </c>
@@ -19897,7 +20146,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>267</v>
       </c>
@@ -19923,7 +20172,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>267</v>
       </c>
@@ -19949,7 +20198,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>267</v>
       </c>
@@ -19975,7 +20224,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>267</v>
       </c>
@@ -20001,7 +20250,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>267</v>
       </c>
@@ -20027,7 +20276,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>267</v>
       </c>
@@ -20053,7 +20302,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>267</v>
       </c>
@@ -20079,7 +20328,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>267</v>
       </c>
@@ -20105,7 +20354,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>267</v>
       </c>
@@ -20131,7 +20380,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>267</v>
       </c>
@@ -20157,7 +20406,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>267</v>
       </c>
@@ -20183,7 +20432,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>267</v>
       </c>
@@ -20209,7 +20458,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>267</v>
       </c>
@@ -20235,7 +20484,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>267</v>
       </c>
@@ -20261,7 +20510,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>267</v>
       </c>
@@ -20287,7 +20536,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>267</v>
       </c>
@@ -20313,7 +20562,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>267</v>
       </c>
@@ -20339,7 +20588,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>267</v>
       </c>
@@ -20365,7 +20614,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>267</v>
       </c>
@@ -20391,7 +20640,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>267</v>
       </c>
@@ -20417,7 +20666,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>267</v>
       </c>
@@ -20443,7 +20692,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>267</v>
       </c>
@@ -20469,7 +20718,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>267</v>
       </c>
@@ -20495,7 +20744,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>267</v>
       </c>
@@ -20521,7 +20770,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>267</v>
       </c>
@@ -20547,7 +20796,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>267</v>
       </c>
@@ -20573,7 +20822,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>267</v>
       </c>
@@ -20599,7 +20848,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>267</v>
       </c>
@@ -20625,7 +20874,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>267</v>
       </c>
@@ -20651,7 +20900,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>267</v>
       </c>
@@ -20677,7 +20926,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>267</v>
       </c>
@@ -20703,7 +20952,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>267</v>
       </c>
@@ -20729,7 +20978,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>267</v>
       </c>
@@ -20771,84 +21020,84 @@
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" customWidth="1"/>
-    <col min="2" max="2" width="87.85546875" customWidth="1"/>
-    <col min="5" max="5" width="43.5703125" customWidth="1"/>
+    <col min="1" max="1" width="4.33203125" customWidth="1"/>
+    <col min="2" max="2" width="87.83203125" customWidth="1"/>
+    <col min="5" max="5" width="43.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:5" ht="19" x14ac:dyDescent="0.25">
       <c r="B2" s="13"/>
     </row>
-    <row r="3" spans="2:5" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:5" ht="29" x14ac:dyDescent="0.35">
       <c r="B3" s="12" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="5" spans="2:5" ht="21" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5" ht="22" x14ac:dyDescent="0.2">
       <c r="B5" s="6" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="D5" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="6"/>
     </row>
-    <row r="7" spans="2:5" ht="21" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5" ht="22" x14ac:dyDescent="0.2">
       <c r="B7" s="6" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" ht="96.75" customHeight="1" x14ac:dyDescent="0.45">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="96.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="6"/>
-      <c r="E8" s="34" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="E8" s="33" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="22" x14ac:dyDescent="0.2">
       <c r="B9" s="6" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" ht="99.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="6"/>
     </row>
-    <row r="11" spans="2:5" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:5" ht="101.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="6" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" ht="18.75" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" ht="20" x14ac:dyDescent="0.2">
       <c r="B12" s="6" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" ht="151.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" ht="151.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="6"/>
     </row>
-    <row r="14" spans="2:5" ht="21" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:5" ht="22" x14ac:dyDescent="0.2">
       <c r="B14" s="6" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" ht="113.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="6"/>
     </row>
-    <row r="16" spans="2:5" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:5" ht="20" x14ac:dyDescent="0.2">
       <c r="B16" s="7" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B17" s="6"/>
     </row>
   </sheetData>
@@ -20869,26 +21118,26 @@
       <selection activeCell="B7" sqref="B7:B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" customWidth="1"/>
-    <col min="2" max="2" width="89.42578125" customWidth="1"/>
-    <col min="3" max="3" width="5.7109375" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" customWidth="1"/>
-    <col min="5" max="9" width="13.85546875" customWidth="1"/>
+    <col min="1" max="1" width="5.6640625" customWidth="1"/>
+    <col min="2" max="2" width="89.5" customWidth="1"/>
+    <col min="3" max="3" width="5.6640625" customWidth="1"/>
+    <col min="4" max="4" width="14.1640625" customWidth="1"/>
+    <col min="5" max="9" width="13.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="2:9" ht="19" x14ac:dyDescent="0.25">
       <c r="B3" s="13"/>
     </row>
-    <row r="4" spans="2:9" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:9" ht="29" x14ac:dyDescent="0.35">
       <c r="B4" s="12" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>177</v>
       </c>
@@ -20902,7 +21151,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" ht="22" x14ac:dyDescent="0.2">
       <c r="B6" s="6" t="s">
         <v>269</v>
       </c>
@@ -20916,7 +21165,7 @@
         <v>80000</v>
       </c>
     </row>
-    <row r="7" spans="2:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" ht="22" x14ac:dyDescent="0.2">
       <c r="B7" s="6" t="s">
         <v>171</v>
       </c>
@@ -20930,7 +21179,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="36" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="38" x14ac:dyDescent="0.2">
       <c r="B8" s="14" t="s">
         <v>169</v>
       </c>
@@ -20944,7 +21193,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="9" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" ht="20" x14ac:dyDescent="0.2">
       <c r="B9" s="6" t="s">
         <v>167</v>
       </c>
@@ -20958,7 +21207,7 @@
         <v>80000</v>
       </c>
     </row>
-    <row r="10" spans="2:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" ht="22" x14ac:dyDescent="0.2">
       <c r="B10" s="6" t="s">
         <v>270</v>
       </c>
@@ -20972,7 +21221,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="11" spans="2:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" ht="22" x14ac:dyDescent="0.2">
       <c r="B11" s="6" t="s">
         <v>163</v>
       </c>
@@ -20989,166 +21238,166 @@
         <v>161</v>
       </c>
     </row>
-    <row r="12" spans="2:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="14" t="s">
         <v>271</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
     </row>
-    <row r="13" spans="2:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" ht="22" x14ac:dyDescent="0.2">
       <c r="B13" s="14" t="s">
         <v>159</v>
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="15" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" ht="20" x14ac:dyDescent="0.2">
       <c r="B15" s="7" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="16" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="6"/>
     </row>
-    <row r="17" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="10"/>
     </row>
-    <row r="33" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="10"/>
     </row>
-    <row r="46" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="10"/>
     </row>
-    <row r="53" spans="5:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" spans="5:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="5:5" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="54" spans="5:5" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E55" s="5"/>
     </row>
-    <row r="61" spans="5:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" spans="5:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" spans="5:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" spans="5:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="102" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="103" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="104" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="105" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="106" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="107" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="108" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="109" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="110" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="111" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="112" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="113" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="114" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="115" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="116" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="117" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="118" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="119" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="120" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="121" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="123" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="124" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="125" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="126" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="127" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="128" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="129" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="130" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="131" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="132" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="133" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="134" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="135" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="136" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="137" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="138" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="139" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="140" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="141" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="142" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="143" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="144" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="145" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="146" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="147" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="148" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="149" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="150" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="151" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="152" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="153" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="154" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="155" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="156" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="157" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="158" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="159" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="160" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="161" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="162" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="163" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="164" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="165" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="166" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="167" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="168" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="169" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="170" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="171" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="172" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" spans="5:5" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" spans="5:5" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" spans="5:5" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" spans="5:5" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="65" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="66" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="67" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="68" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="69" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="71" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="73" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="81" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="82" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="83" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="84" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="85" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="86" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="87" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="88" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="89" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="90" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="91" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="93" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="94" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="96" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="97" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="98" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="99" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="105" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="106" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="107" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="108" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="109" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="112" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="113" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="114" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="115" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="116" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="117" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="118" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="119" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="120" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="121" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="122" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="123" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="124" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="125" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="126" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="127" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="128" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="129" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="130" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="131" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="132" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="133" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="134" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="135" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="136" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="137" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="138" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="139" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="140" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="141" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="142" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="143" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="144" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="145" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="146" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="147" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="148" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="149" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="150" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="151" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="152" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="153" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="154" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="155" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="156" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="157" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="158" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="159" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="160" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="161" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="162" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="163" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="164" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="165" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="166" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="167" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="168" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="169" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="170" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="171" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="172" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -21163,26 +21412,26 @@
       <selection activeCell="H94" sqref="H94"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" customWidth="1"/>
-    <col min="2" max="2" width="89.42578125" customWidth="1"/>
-    <col min="3" max="3" width="5.7109375" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" customWidth="1"/>
-    <col min="5" max="9" width="13.85546875" customWidth="1"/>
+    <col min="1" max="1" width="5.6640625" customWidth="1"/>
+    <col min="2" max="2" width="89.5" customWidth="1"/>
+    <col min="3" max="3" width="5.6640625" customWidth="1"/>
+    <col min="4" max="4" width="14.1640625" customWidth="1"/>
+    <col min="5" max="9" width="13.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:9" ht="19" x14ac:dyDescent="0.25">
       <c r="B2" s="13"/>
     </row>
-    <row r="3" spans="2:9" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:9" ht="29" x14ac:dyDescent="0.35">
       <c r="B3" s="12" t="s">
         <v>251</v>
       </c>
       <c r="F3" s="19"/>
     </row>
-    <row r="4" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>250</v>
       </c>
@@ -21200,7 +21449,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" ht="22" x14ac:dyDescent="0.2">
       <c r="B5" s="6" t="s">
         <v>249</v>
       </c>
@@ -21218,7 +21467,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" ht="22" x14ac:dyDescent="0.2">
       <c r="B6" s="6" t="s">
         <v>247</v>
       </c>
@@ -21236,7 +21485,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="2:9" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:9" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="14" t="s">
         <v>245</v>
       </c>
@@ -21254,7 +21503,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:9" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
         <v>243</v>
       </c>
@@ -21262,14 +21511,14 @@
       <c r="F8" s="27"/>
       <c r="H8" s="32"/>
     </row>
-    <row r="9" spans="2:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>242</v>
       </c>
       <c r="D9" s="27"/>
       <c r="F9" s="27"/>
     </row>
-    <row r="10" spans="2:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:9" ht="23" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="6" t="s">
         <v>241</v>
       </c>
@@ -21284,7 +21533,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="11" spans="2:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" ht="22" x14ac:dyDescent="0.2">
       <c r="B11" s="31" t="s">
         <v>237</v>
       </c>
@@ -21296,7 +21545,7 @@
       </c>
       <c r="F11" s="27"/>
     </row>
-    <row r="12" spans="2:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="6" t="s">
         <v>235</v>
       </c>
@@ -21308,7 +21557,7 @@
       </c>
       <c r="F12" s="27"/>
     </row>
-    <row r="13" spans="2:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" ht="22" x14ac:dyDescent="0.2">
       <c r="B13" s="6" t="s">
         <v>233</v>
       </c>
@@ -21321,42 +21570,42 @@
       <c r="F13" s="27"/>
       <c r="G13" s="27"/>
     </row>
-    <row r="14" spans="2:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" ht="22" x14ac:dyDescent="0.2">
       <c r="B14" s="6" t="s">
         <v>231</v>
       </c>
       <c r="E14" s="29"/>
       <c r="F14" s="27"/>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
         <v>230</v>
       </c>
       <c r="F15" s="27"/>
     </row>
-    <row r="16" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" ht="20" x14ac:dyDescent="0.2">
       <c r="B16" s="7" t="s">
         <v>229</v>
       </c>
       <c r="F16" s="27"/>
     </row>
-    <row r="17" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B17" s="28"/>
       <c r="F17" s="27"/>
     </row>
-    <row r="18" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D18" s="27"/>
     </row>
-    <row r="19" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="2:9" ht="19" x14ac:dyDescent="0.25">
       <c r="B20" s="13"/>
     </row>
-    <row r="21" spans="2:9" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:9" ht="29" x14ac:dyDescent="0.35">
       <c r="B21" s="12" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="22" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>227</v>
       </c>
@@ -21370,7 +21619,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="23" spans="2:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" ht="22" x14ac:dyDescent="0.2">
       <c r="B23" s="6" t="s">
         <v>223</v>
       </c>
@@ -21384,7 +21633,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="24" spans="2:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" ht="22" x14ac:dyDescent="0.2">
       <c r="B24" s="6" t="s">
         <v>220</v>
       </c>
@@ -21393,7 +21642,7 @@
       </c>
       <c r="F24" s="23"/>
     </row>
-    <row r="25" spans="2:9" ht="42" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" ht="44" x14ac:dyDescent="0.2">
       <c r="B25" s="6" t="s">
         <v>218</v>
       </c>
@@ -21402,7 +21651,7 @@
       </c>
       <c r="F25" s="23"/>
     </row>
-    <row r="26" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" ht="20" x14ac:dyDescent="0.2">
       <c r="B26" s="6" t="s">
         <v>216</v>
       </c>
@@ -21414,7 +21663,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="27" spans="2:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" ht="22" x14ac:dyDescent="0.2">
       <c r="B27" s="6" t="s">
         <v>213</v>
       </c>
@@ -21423,7 +21672,7 @@
       </c>
       <c r="F27" s="23"/>
     </row>
-    <row r="28" spans="2:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" ht="22" x14ac:dyDescent="0.2">
       <c r="B28" s="6" t="s">
         <v>211</v>
       </c>
@@ -21433,45 +21682,45 @@
       <c r="E28" s="21"/>
       <c r="F28" s="20"/>
     </row>
-    <row r="29" spans="2:9" ht="42" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" ht="44" x14ac:dyDescent="0.2">
       <c r="B29" s="14" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="30" spans="2:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" ht="22" x14ac:dyDescent="0.2">
       <c r="B30" s="6" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="32" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" ht="20" x14ac:dyDescent="0.2">
       <c r="B32" s="7" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B33" s="6"/>
     </row>
-    <row r="34" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G35" s="19"/>
     </row>
-    <row r="36" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G36" s="19"/>
     </row>
-    <row r="37" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="1"/>
     </row>
-    <row r="38" spans="2:9" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:9" ht="29" x14ac:dyDescent="0.35">
       <c r="B38" s="12" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
         <v>204</v>
       </c>
@@ -21488,7 +21737,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="40" spans="2:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" ht="22" x14ac:dyDescent="0.2">
       <c r="B40" s="6" t="s">
         <v>200</v>
       </c>
@@ -21502,7 +21751,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="41" spans="2:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" ht="22" x14ac:dyDescent="0.2">
       <c r="B41" s="6" t="s">
         <v>198</v>
       </c>
@@ -21516,7 +21765,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="42" spans="2:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="6" t="s">
         <v>196</v>
       </c>
@@ -21530,7 +21779,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="43" spans="2:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" ht="22" x14ac:dyDescent="0.2">
       <c r="B43" s="6" t="s">
         <v>193</v>
       </c>
@@ -21544,7 +21793,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="2:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" ht="22" x14ac:dyDescent="0.2">
       <c r="B44" s="6" t="s">
         <v>192</v>
       </c>
@@ -21558,7 +21807,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="2:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" ht="22" x14ac:dyDescent="0.2">
       <c r="B45" s="6" t="s">
         <v>190</v>
       </c>
@@ -21572,7 +21821,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="46" spans="2:9" ht="42" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" ht="44" x14ac:dyDescent="0.2">
       <c r="B46" s="6" t="s">
         <v>188</v>
       </c>
@@ -21586,7 +21835,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="47" spans="2:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" ht="22" x14ac:dyDescent="0.2">
       <c r="B47" s="6" t="s">
         <v>186</v>
       </c>
@@ -21600,7 +21849,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="48" spans="2:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" ht="22" x14ac:dyDescent="0.2">
       <c r="B48" s="6" t="s">
         <v>184</v>
       </c>
@@ -21614,7 +21863,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B49" s="1" t="s">
         <v>182</v>
       </c>
@@ -21628,7 +21877,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="50" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" ht="20" x14ac:dyDescent="0.2">
       <c r="B50" s="7" t="s">
         <v>180</v>
       </c>
@@ -21642,21 +21891,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="51" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="6"/>
     </row>
-    <row r="52" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="54" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" spans="2:9" ht="19" x14ac:dyDescent="0.25">
       <c r="B55" s="13"/>
     </row>
-    <row r="56" spans="2:9" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="56" spans="2:9" ht="29" x14ac:dyDescent="0.35">
       <c r="B56" s="12" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B57" s="1" t="s">
         <v>177</v>
       </c>
@@ -21670,7 +21919,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="58" spans="2:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9" ht="22" x14ac:dyDescent="0.2">
       <c r="B58" s="6" t="s">
         <v>173</v>
       </c>
@@ -21684,7 +21933,7 @@
         <v>80000</v>
       </c>
     </row>
-    <row r="59" spans="2:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" ht="22" x14ac:dyDescent="0.2">
       <c r="B59" s="6" t="s">
         <v>171</v>
       </c>
@@ -21698,7 +21947,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="60" spans="2:9" ht="36" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" ht="38" x14ac:dyDescent="0.2">
       <c r="B60" s="14" t="s">
         <v>169</v>
       </c>
@@ -21712,7 +21961,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="61" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" ht="20" x14ac:dyDescent="0.2">
       <c r="B61" s="6" t="s">
         <v>167</v>
       </c>
@@ -21726,7 +21975,7 @@
         <v>80000</v>
       </c>
     </row>
-    <row r="62" spans="2:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" ht="22" x14ac:dyDescent="0.2">
       <c r="B62" s="6" t="s">
         <v>165</v>
       </c>
@@ -21740,7 +21989,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="63" spans="2:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9" ht="22" x14ac:dyDescent="0.2">
       <c r="B63" s="6" t="s">
         <v>163</v>
       </c>
@@ -21757,45 +22006,45 @@
         <v>161</v>
       </c>
     </row>
-    <row r="64" spans="2:9" ht="42" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9" ht="44" x14ac:dyDescent="0.2">
       <c r="B64" s="14" t="s">
         <v>160</v>
       </c>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
     </row>
-    <row r="65" spans="2:6" ht="21" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:6" ht="22" x14ac:dyDescent="0.2">
       <c r="B65" s="14" t="s">
         <v>159</v>
       </c>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
     </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B66" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="67" spans="2:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:6" ht="20" x14ac:dyDescent="0.2">
       <c r="B67" s="7" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="68" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B68" s="6"/>
     </row>
-    <row r="69" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="71" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" spans="2:6" ht="19" x14ac:dyDescent="0.25">
       <c r="B72" s="13"/>
     </row>
-    <row r="73" spans="2:6" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="73" spans="2:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B73" s="12" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="74" spans="2:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:6" ht="17" x14ac:dyDescent="0.2">
       <c r="B74" s="1" t="s">
         <v>155</v>
       </c>
@@ -21804,7 +22053,7 @@
       </c>
       <c r="E74" s="10"/>
     </row>
-    <row r="75" spans="2:6" ht="21" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:6" ht="22" x14ac:dyDescent="0.2">
       <c r="B75" s="6" t="s">
         <v>153</v>
       </c>
@@ -21815,7 +22064,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="76" spans="2:6" ht="21" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:6" ht="22" x14ac:dyDescent="0.2">
       <c r="B76" s="6" t="s">
         <v>150</v>
       </c>
@@ -21826,7 +22075,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="77" spans="2:6" ht="42" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:6" ht="44" x14ac:dyDescent="0.2">
       <c r="B77" s="14" t="s">
         <v>148</v>
       </c>
@@ -21837,7 +22086,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="78" spans="2:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:6" ht="20" x14ac:dyDescent="0.2">
       <c r="B78" s="6" t="s">
         <v>146</v>
       </c>
@@ -21848,7 +22097,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="79" spans="2:6" ht="42" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:6" ht="44" x14ac:dyDescent="0.2">
       <c r="B79" s="6" t="s">
         <v>144</v>
       </c>
@@ -21859,7 +22108,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="80" spans="2:6" ht="21" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:6" ht="22" x14ac:dyDescent="0.2">
       <c r="B80" s="6" t="s">
         <v>142</v>
       </c>
@@ -21870,41 +22119,41 @@
         <v>100</v>
       </c>
     </row>
-    <row r="81" spans="2:5" ht="51" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:5" ht="54" x14ac:dyDescent="0.2">
       <c r="B81" s="14" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="82" spans="2:5" ht="21" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:5" ht="22" x14ac:dyDescent="0.2">
       <c r="B82" s="9" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B83" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="84" spans="2:5" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:5" ht="20" x14ac:dyDescent="0.2">
       <c r="B84" s="7" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="85" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B85" s="6"/>
     </row>
-    <row r="86" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="87" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="88" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="89" spans="2:5" ht="19" x14ac:dyDescent="0.25">
       <c r="B89" s="13"/>
     </row>
-    <row r="90" spans="2:5" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="90" spans="2:5" ht="29" x14ac:dyDescent="0.35">
       <c r="B90" s="12" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="91" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B91" s="1" t="s">
         <v>135</v>
       </c>
@@ -21913,7 +22162,7 @@
       </c>
       <c r="E91" s="10"/>
     </row>
-    <row r="92" spans="2:5" ht="42" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:5" ht="44" x14ac:dyDescent="0.2">
       <c r="B92" s="6" t="s">
         <v>133</v>
       </c>
@@ -21924,7 +22173,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="93" spans="2:5" ht="21" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:5" ht="22" x14ac:dyDescent="0.2">
       <c r="B93" s="6" t="s">
         <v>130</v>
       </c>
@@ -21935,7 +22184,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="94" spans="2:5" ht="48.75" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:5" ht="52" x14ac:dyDescent="0.2">
       <c r="B94" s="6" t="s">
         <v>128</v>
       </c>
@@ -21946,7 +22195,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="95" spans="2:5" ht="42" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:5" ht="44" x14ac:dyDescent="0.2">
       <c r="B95" s="6" t="s">
         <v>126</v>
       </c>
@@ -21957,7 +22206,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="96" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B96" s="1" t="s">
         <v>124</v>
       </c>
@@ -21968,12 +22217,12 @@
         <v>520</v>
       </c>
     </row>
-    <row r="97" spans="2:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:9" ht="22" x14ac:dyDescent="0.2">
       <c r="B97" s="6" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="98" spans="2:9" ht="42" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:9" ht="44" x14ac:dyDescent="0.2">
       <c r="B98" s="6" t="s">
         <v>121</v>
       </c>
@@ -21982,7 +22231,7 @@
       </c>
       <c r="E98" s="10"/>
     </row>
-    <row r="99" spans="2:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:9" ht="22" x14ac:dyDescent="0.2">
       <c r="B99" s="6" t="s">
         <v>119</v>
       </c>
@@ -21993,7 +22242,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="100" spans="2:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:9" ht="22" x14ac:dyDescent="0.2">
       <c r="B100" s="9" t="s">
         <v>116</v>
       </c>
@@ -22004,7 +22253,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="101" spans="2:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:9" ht="22" x14ac:dyDescent="0.2">
       <c r="B101" s="6" t="s">
         <v>114</v>
       </c>
@@ -22015,7 +22264,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B102" s="6" t="s">
         <v>112</v>
       </c>
@@ -22026,7 +22275,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B103" s="1" t="s">
         <v>110</v>
       </c>
@@ -22037,7 +22286,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="104" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:9" ht="20" x14ac:dyDescent="0.2">
       <c r="B104" s="7" t="s">
         <v>108</v>
       </c>
@@ -22048,11 +22297,11 @@
         <v>24</v>
       </c>
     </row>
-    <row r="105" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B105" s="6"/>
     </row>
-    <row r="106" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="107" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B107" s="1" t="s">
         <v>102</v>
       </c>
@@ -22060,141 +22309,141 @@
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:9" ht="20" x14ac:dyDescent="0.2">
       <c r="B108" s="4" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="109" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:9" ht="19" x14ac:dyDescent="0.2">
       <c r="B109" s="4"/>
     </row>
-    <row r="110" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:9" ht="20" x14ac:dyDescent="0.2">
       <c r="B110" s="3" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B111" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B112" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="113" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="114" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="115" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="116" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="117" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="118" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="119" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="120" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="121" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="123" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="124" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="125" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="126" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="127" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="128" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="129" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="130" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="131" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="132" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="133" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="134" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="135" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="136" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="137" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="138" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="139" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="140" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="141" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="142" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="143" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="144" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="145" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="146" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="147" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="148" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="149" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="150" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="151" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="152" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="153" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="154" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="155" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="156" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="157" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="158" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="159" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="160" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="161" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="162" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="163" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="164" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="165" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="166" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="167" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="168" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="169" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="170" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="171" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="172" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="173" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="174" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="175" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="176" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="177" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="178" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="179" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="180" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="181" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="182" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="183" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="184" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="185" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="186" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="187" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="188" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="189" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="190" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="191" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="192" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="193" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="194" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="195" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="196" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="197" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="198" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="199" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="200" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="201" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="202" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="203" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="204" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="205" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="206" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="207" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="208" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="209" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="210" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="211" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="212" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="213" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="214" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="215" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="216" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="217" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="218" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="219" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="220" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="221" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="222" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="223" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="224" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="114" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="115" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="116" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="117" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="118" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="119" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="120" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="121" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="122" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="123" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="124" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="125" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="126" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="127" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="128" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="129" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="130" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="131" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="132" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="133" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="134" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="135" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="136" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="137" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="138" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="139" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="140" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="141" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="142" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="143" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="144" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="145" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="146" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="147" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="148" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="149" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="150" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="151" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="152" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="153" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="154" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="155" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="156" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="157" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="158" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="159" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="160" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="161" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="162" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="163" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="164" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="165" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="166" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="167" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="168" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="169" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="170" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="171" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="172" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="173" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="174" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="175" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="176" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="177" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="178" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="179" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="180" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="181" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="182" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="183" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="184" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="185" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="186" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="187" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="188" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="189" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="190" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="191" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="192" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="193" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="194" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="195" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="196" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="197" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="198" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="199" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="200" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="201" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="202" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="203" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="204" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="205" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="206" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="207" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="208" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="209" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="210" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="211" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="212" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="213" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="214" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="215" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="216" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="217" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="218" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="219" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="220" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="221" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="222" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="223" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="224" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B111" r:id="rId1" tooltip="Select to go to the Excel Community on the web" xr:uid="{22C2C9C8-6E68-47F3-B8E5-B76F16CEBB18}"/>

--- a/hosted_files/dataset.xlsx
+++ b/hosted_files/dataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peli/Documents/data-science-editor-excel/hosted_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA50ED9B-ED7B-F345-ABFC-B085E8ED4329}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26CB9E92-0A32-5E46-ACD3-021626A81BA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="19200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1462" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1464" uniqueCount="287">
   <si>
     <t>name</t>
   </si>
@@ -3639,6 +3639,12 @@
       </rPr>
       <t>is available from then Office Store at</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">https://microsoft.github.io/data-science-editor-excel/hosted_files/getting-started.gif </t>
+  </si>
+  <si>
+    <t>This video shows the basic usage of the Data Science Editor addin.</t>
   </si>
 </sst>
 </file>
@@ -5434,6 +5440,151 @@
               <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
             </a:rPr>
             <a:t>add-in</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38101</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2488958</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>5096</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="LaunchHelpHeader">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BECAC3A8-B524-D844-9294-3C9E85AEB63A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="368301" y="6515100"/>
+          <a:ext cx="10934457" cy="513096"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="0" rtlCol="0" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400">
+              <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Getting started</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -8267,7 +8418,7 @@
   <dimension ref="B1:D28"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8341,17 +8492,21 @@
     <row r="18" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B18" s="6"/>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:2" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="6"/>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B20" s="6"/>
+    <row r="20" spans="2:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="B20" s="34" t="s">
+        <v>286</v>
+      </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B21" s="6"/>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B22" s="6"/>
+    <row r="22" spans="2:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B22" s="2" t="s">
+        <v>285</v>
+      </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B23" s="6"/>
@@ -8374,10 +8529,11 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B8" r:id="rId1" xr:uid="{77612E16-80A7-B340-B4E4-838CBA0512B6}"/>
+    <hyperlink ref="B22" r:id="rId2" xr:uid="{CE2008CE-EA29-FF43-BACC-29E9296E5E61}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
-  <drawing r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
 
